--- a/bonding_data.xlsx
+++ b/bonding_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fatmagulkatmer/Desktop/Bond paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8F7F55-2EAA-494C-9015-EAE7503BC5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCE9423-75D5-C94C-BE19-2E2C390FD48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1240" windowWidth="27640" windowHeight="16760" xr2:uid="{2109E7F2-32CC-9040-8326-FC66BF9EF3AD}"/>
+    <workbookView xWindow="-8100" yWindow="-28300" windowWidth="44860" windowHeight="24000" xr2:uid="{2109E7F2-32CC-9040-8326-FC66BF9EF3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Material Name</t>
   </si>
@@ -158,36 +158,6 @@
     <t>bernal_bilayer</t>
   </si>
   <si>
-    <t>triple_16</t>
-  </si>
-  <si>
-    <t>tetra_16</t>
-  </si>
-  <si>
-    <t>penta_16</t>
-  </si>
-  <si>
-    <t>bernal_16</t>
-  </si>
-  <si>
-    <t>graphene_16</t>
-  </si>
-  <si>
-    <t>graphene_upto10</t>
-  </si>
-  <si>
-    <t>bernal_upto10</t>
-  </si>
-  <si>
-    <t>triple_up_to10</t>
-  </si>
-  <si>
-    <t>tetra_up_to_10</t>
-  </si>
-  <si>
-    <t>penta_up_to_10</t>
-  </si>
-  <si>
     <t>Material Type</t>
   </si>
   <si>
@@ -213,13 +183,55 @@
   </si>
   <si>
     <t>Cuprate</t>
+  </si>
+  <si>
+    <t>Drude Weight</t>
+  </si>
+  <si>
+    <t>sumrule</t>
+  </si>
+  <si>
+    <t>Kai</t>
+  </si>
+  <si>
+    <t>1-Kai</t>
+  </si>
+  <si>
+    <t>N_itenerant</t>
+  </si>
+  <si>
+    <t>N_bound</t>
+  </si>
+  <si>
+    <t>sqrt(G)/A with bound</t>
+  </si>
+  <si>
+    <t>Bound_electron_density</t>
+  </si>
+  <si>
+    <t>∫ σ(ω) dω</t>
+  </si>
+  <si>
+    <t>triple layer</t>
+  </si>
+  <si>
+    <t>tetra layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penta layer </t>
+  </si>
+  <si>
+    <t>∫ σ(ω)/ω dω / N_bound</t>
+  </si>
+  <si>
+    <t>sqrt(∫ σ(ω) dω/bound_electron_density)/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,6 +247,18 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -260,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -278,6 +302,10 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,19 +640,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F67CC0-CCD5-6C45-A678-73E088142371}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1640625" customWidth="1"/>
+    <col min="23" max="23" width="46.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,10 +694,43 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -701,10 +769,51 @@
         <v>1.99</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="M2" s="9">
+        <v>-0.55200000000000005</v>
+      </c>
+      <c r="N2" s="9">
+        <v>409.37099999999998</v>
+      </c>
+      <c r="O2">
+        <f>ABS(M2/N2)</f>
+        <v>1.3484101218698933E-3</v>
+      </c>
+      <c r="P2">
+        <f>1-O2</f>
+        <v>0.99865158987813007</v>
+      </c>
+      <c r="Q2">
+        <f>D2*O2</f>
+        <v>0.10787280974959146</v>
+      </c>
+      <c r="R2">
+        <f>D2*P2</f>
+        <v>79.892127190250406</v>
+      </c>
+      <c r="S2">
+        <f>R2/C2</f>
+        <v>0.29648875658861978</v>
+      </c>
+      <c r="T2">
+        <f>SQRT(B2/S2) / G2</f>
+        <v>0.81556629235171774</v>
+      </c>
+      <c r="U2" s="11">
+        <v>20.931999999999999</v>
+      </c>
+      <c r="V2">
+        <f>B2/R2</f>
+        <v>0.10298010942189575</v>
+      </c>
+      <c r="W2" s="10">
+        <f>SQRT(U2/S2)/G2</f>
+        <v>1.3008761878060733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -743,10 +852,51 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M3" s="9">
+        <v>40.213000000000001</v>
+      </c>
+      <c r="N3" s="9">
+        <v>256.61500000000001</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O40" si="4">ABS(M3/N3)</f>
+        <v>0.1567055706018744</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P40" si="5">1-O3</f>
+        <v>0.8432944293981256</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q40" si="6">D3*O3</f>
+        <v>1.0969389942131209</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R40" si="7">D3*P3</f>
+        <v>5.9030610057868795</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S40" si="8">R3/C3</f>
+        <v>0.12081755174116043</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T40" si="9">SQRT(B3/S3) / G3</f>
+        <v>9.8919314826721713E-2</v>
+      </c>
+      <c r="U3" s="11">
+        <v>7.4675000000000005E-2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V33" si="10">B3/R3</f>
+        <v>2.6765774543937408E-3</v>
+      </c>
+      <c r="W3" s="10">
+        <f t="shared" ref="W3:W33" si="11">SQRT(U3/S3)/G3</f>
+        <v>0.21505035889610455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -785,10 +935,51 @@
         <v>10.88</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <v>427.43900000000002</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="8"/>
+        <v>0.21919524033192422</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="9"/>
+        <v>0.72028954470352891</v>
+      </c>
+      <c r="U4" s="11">
+        <v>18.378</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="10"/>
+        <v>0.12979285714285713</v>
+      </c>
+      <c r="W4" s="10">
+        <f t="shared" si="11"/>
+        <v>2.290692639079313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -827,10 +1018,51 @@
         <v>11.26</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="N5" s="9">
+        <v>1056.7380000000001</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>2.7442942337646607E-5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>0.9999725570576623</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="6"/>
+        <v>4.9397296207763898E-4</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>17.999506027037921</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="8"/>
+        <v>0.54190895761065538</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="9"/>
+        <v>0.88760853371056037</v>
+      </c>
+      <c r="U5" s="11">
+        <v>38.061</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="10"/>
+        <v>0.24509561503371949</v>
+      </c>
+      <c r="W5" s="10">
+        <f t="shared" si="11"/>
+        <v>2.6071348939251595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -869,10 +1101,51 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="M6" s="9">
+        <v>13.109</v>
+      </c>
+      <c r="N6" s="9">
+        <v>599.68499999999995</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>2.1859809733443394E-2</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0.97814019026655663</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="6"/>
+        <v>0.96183162827150936</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>43.038168371728489</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="8"/>
+        <v>0.42540319018257816</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>1.4549136485931211</v>
+      </c>
+      <c r="U6" s="11">
+        <v>36.884</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="10"/>
+        <v>0.26278999380999379</v>
+      </c>
+      <c r="W6" s="10">
+        <f t="shared" si="11"/>
+        <v>2.6273922965729901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -911,10 +1184,51 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="M7" s="9">
+        <v>8.8040000000000003</v>
+      </c>
+      <c r="N7" s="9">
+        <v>406.63099999999997</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>2.1651079233998394E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0.97834892076600166</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>1.4289712294438939</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>64.571028770556111</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="8"/>
+        <v>0.28851726192480043</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>1.3948910490920527</v>
+      </c>
+      <c r="U7" s="11">
+        <v>23.82</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="10"/>
+        <v>0.17552763547060313</v>
+      </c>
+      <c r="W7" s="10">
+        <f t="shared" si="11"/>
+        <v>2.022178841081268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -953,10 +1267,51 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="N8" s="9">
+        <v>584.54499999999996</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>8.1088710022325053E-4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0.99918911289977674</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="6"/>
+        <v>2.4326613006697514E-2</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>29.975673386993304</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
+        <v>0.28044264865693025</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>1.4367813451403855</v>
+      </c>
+      <c r="U8" s="11">
+        <v>27.456</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="10"/>
+        <v>0.43498605791647477</v>
+      </c>
+      <c r="W8" s="10">
+        <f t="shared" si="11"/>
+        <v>2.0849093212493912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -995,10 +1350,51 @@
         <v>1.83</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="M9" s="9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N9" s="9">
+        <v>468.495</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>1.6862506536889402E-4</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>0.99983137493463115</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="6"/>
+        <v>8.0940031377069125E-3</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>47.991905996862293</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="8"/>
+        <v>5.0485065521060919E-2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>1.320110551066382</v>
+      </c>
+      <c r="U9" s="11">
+        <v>33.271999999999998</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="10"/>
+        <v>0.17723613645509548</v>
+      </c>
+      <c r="W9" s="10">
+        <f t="shared" si="11"/>
+        <v>2.6108962806726246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1037,10 +1433,51 @@
         <v>11.17</v>
       </c>
       <c r="L10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>971.98500000000001</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="8"/>
+        <v>0.4981320049813201</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>1.424069411142505</v>
+      </c>
+      <c r="U10" s="12">
+        <v>76.465999999999994</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="10"/>
+        <v>0.80348750000000002</v>
+      </c>
+      <c r="W10" s="10">
+        <f t="shared" si="11"/>
+        <v>4.9116881869302489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1079,10 +1516,51 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>139.86500000000001</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="8"/>
+        <v>0.10143473344372138</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>1.5954513939237278</v>
+      </c>
+      <c r="U11" s="12">
+        <v>11.397</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="10"/>
+        <v>0.19595000000000001</v>
+      </c>
+      <c r="W11" s="10">
+        <f t="shared" si="11"/>
+        <v>4.3019090511433546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1121,10 +1599,51 @@
         <v>4.91</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>213.55699999999999</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="8"/>
+        <v>0.15487807991592167</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="9"/>
+        <v>1.3125574138811373</v>
+      </c>
+      <c r="U12" s="12">
+        <v>18.023</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="10"/>
+        <v>0.1135</v>
+      </c>
+      <c r="W12" s="10">
+        <f t="shared" si="11"/>
+        <v>3.2437490350792819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1163,10 +1682,51 @@
         <v>3.42</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>184.953</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="8"/>
+        <v>0.13413411191788138</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="9"/>
+        <v>1.3676030451323438</v>
+      </c>
+      <c r="U13" s="12">
+        <v>77.938000000000002</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="10"/>
+        <v>0.1222</v>
+      </c>
+      <c r="W13" s="10">
+        <f t="shared" si="11"/>
+        <v>6.7734887010444362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1205,10 +1765,51 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>69.933000000000007</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="8"/>
+        <v>5.0717367043392095E-2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="9"/>
+        <v>1.5953088951374941</v>
+      </c>
+      <c r="U14" s="12">
+        <v>5.7030000000000003</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="10"/>
+        <v>9.7957500000000003E-2</v>
+      </c>
+      <c r="W14" s="10">
+        <f t="shared" si="11"/>
+        <v>4.3036072712875528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1247,10 +1848,51 @@
         <v>1.54</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="M15" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N15" s="9">
+        <v>212.68600000000001</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>1.2224594002426111E-4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>0.9998777540599757</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="6"/>
+        <v>3.4228863206793112E-3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="7"/>
+        <v>27.996577113679319</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="8"/>
+        <v>0.15422783069486656</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="9"/>
+        <v>1.7770927248201147</v>
+      </c>
+      <c r="U15" s="10">
+        <v>27.812000000000001</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="10"/>
+        <v>0.34459569685346164</v>
+      </c>
+      <c r="W15" s="10">
+        <f t="shared" si="11"/>
+        <v>3.0173021739510539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1289,10 +1931,51 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M16" s="9">
+        <v>217.70699999999999</v>
+      </c>
+      <c r="N16" s="9">
+        <v>766.68899999999996</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>0.28395738037196311</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>0.71604261962803695</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>2.839573803719631</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="7"/>
+        <v>7.160426196280369</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="8"/>
+        <v>0.39813987424201508</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="9"/>
+        <v>1.6468403760903167</v>
+      </c>
+      <c r="U16" s="12">
+        <v>39.439</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="10"/>
+        <v>1.0351478804223089</v>
+      </c>
+      <c r="W16" s="10">
+        <f t="shared" si="11"/>
+        <v>3.7987771630966041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1331,10 +2014,51 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M17" s="9">
+        <v>94.590999999999994</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1306.68</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>7.2390332751706601E-2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>0.92760966724829341</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="6"/>
+        <v>0.79629366026877257</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>10.203706339731227</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="8"/>
+        <v>0.87904635196733438</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="9"/>
+        <v>0.85500282064319633</v>
+      </c>
+      <c r="U17" s="12">
+        <v>30.963999999999999</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="10"/>
+        <v>0.40678356097313284</v>
+      </c>
+      <c r="W17" s="10">
+        <f t="shared" si="11"/>
+        <v>2.3352608810965054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1373,10 +2097,51 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M18" s="9">
+        <v>79.697000000000003</v>
+      </c>
+      <c r="N18" s="9">
+        <v>886.76</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>8.9874374126031845E-2</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>0.91012562587396817</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="6"/>
+        <v>0.98861811538635025</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="7"/>
+        <v>10.01138188461365</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="8"/>
+        <v>0.58530690079298719</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="9"/>
+        <v>1.0498902108483188</v>
+      </c>
+      <c r="U18" s="12">
+        <v>45.042999999999999</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
+        <v>0.53900650901084324</v>
+      </c>
+      <c r="W18" s="10">
+        <f t="shared" si="11"/>
+        <v>3.0332871245290489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1415,10 +2180,51 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M19" s="9">
+        <v>47.975999999999999</v>
+      </c>
+      <c r="N19" s="9">
+        <v>932.41</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>5.1453759612187774E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>0.94854624038781221</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="6"/>
+        <v>0.4116300768975022</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>7.5883699231024977</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="8"/>
+        <v>0.64141885644874286</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="9"/>
+        <v>2.0995195489054614</v>
+      </c>
+      <c r="U19" s="12">
+        <v>44.808999999999997</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="10"/>
+        <v>2.3031296809598003</v>
+      </c>
+      <c r="W19" s="10">
+        <f t="shared" si="11"/>
+        <v>3.361778579216391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1457,10 +2263,51 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M20" s="9">
+        <v>15.01</v>
+      </c>
+      <c r="N20" s="9">
+        <v>932.41</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>1.609806844628436E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>0.98390193155371564</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="6"/>
+        <v>0.12878454757027488</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="7"/>
+        <v>7.8712154524297251</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="8"/>
+        <v>0.66532681794919313</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="9"/>
+        <v>1.5933488618078722</v>
+      </c>
+      <c r="U20" s="10">
+        <v>42.536000000000001</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="10"/>
+        <v>1.3264787456398519</v>
+      </c>
+      <c r="W20" s="10">
+        <f t="shared" si="11"/>
+        <v>3.2160156260114379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -1499,10 +2346,51 @@
         <v>3.78</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>926.51700000000005</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="8"/>
+        <v>0.67194027794809597</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="9"/>
+        <v>0.61381927819330573</v>
+      </c>
+      <c r="U21" s="12">
+        <v>32.637</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="10"/>
+        <v>9.6494999999999997E-2</v>
+      </c>
+      <c r="W21" s="10">
+        <f t="shared" si="11"/>
+        <v>1.7848973264335135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1541,10 +2429,51 @@
         <v>6.99</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>212.73599999999999</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="8"/>
+        <v>0.15428274434288569</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="9"/>
+        <v>0.8923148339379563</v>
+      </c>
+      <c r="U22" s="10">
+        <v>13.8</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="10"/>
+        <v>3.3224999999999998E-2</v>
+      </c>
+      <c r="W22" s="10">
+        <f t="shared" si="11"/>
+        <v>2.6248503161244354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1583,10 +2512,51 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="M23" s="9">
+        <v>8.4589999999999996</v>
+      </c>
+      <c r="N23" s="9">
+        <v>835.79899999999998</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>1.0120854415954075E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>0.98987914558404588</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="6"/>
+        <v>0.66797639145296894</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="7"/>
+        <v>65.332023608547033</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="8"/>
+        <v>0.60001270713295052</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="9"/>
+        <v>0.79086798320587037</v>
+      </c>
+      <c r="U23" s="12">
+        <v>35.795000000000002</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="10"/>
+        <v>0.16117670046611593</v>
+      </c>
+      <c r="W23" s="10">
+        <f t="shared" si="11"/>
+        <v>1.458145937093116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -1625,10 +2595,51 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M24" s="9">
+        <v>154.97800000000001</v>
+      </c>
+      <c r="N24" s="9">
+        <v>249.191</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="4"/>
+        <v>0.62192454783679996</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>0.37807545216320004</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="6"/>
+        <v>1.8657736435104</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="7"/>
+        <v>1.1342263564896</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="8"/>
+        <v>6.8326477339871447E-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="9"/>
+        <v>2.7738860603167241</v>
+      </c>
+      <c r="U24" s="10">
+        <v>7.7526999999999999</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="10"/>
+        <v>3.8002996274399505</v>
+      </c>
+      <c r="W24" s="10">
+        <f t="shared" si="11"/>
+        <v>3.7201146145747033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1667,10 +2678,51 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M25" s="9">
+        <v>151.148</v>
+      </c>
+      <c r="N25" s="9">
+        <v>1089.3810000000001</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>0.13874668274919424</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>0.86125331725080578</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="6"/>
+        <v>3.3299203859806621</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="7"/>
+        <v>20.67007961401934</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="8"/>
+        <v>0.68043596500127856</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="9"/>
+        <v>1.2765922484785572</v>
+      </c>
+      <c r="U25" s="12">
+        <v>22.913</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="10"/>
+        <v>0.38053070655157084</v>
+      </c>
+      <c r="W25" s="10">
+        <f t="shared" si="11"/>
+        <v>2.1788495951790647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1709,10 +2761,51 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="M26" s="9">
+        <v>15.375999999999999</v>
+      </c>
+      <c r="N26" s="9">
+        <v>219.30099999999999</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="4"/>
+        <v>7.0113679372187085E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>0.92988632062781296</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="6"/>
+        <v>0.70113679372187088</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="7"/>
+        <v>9.2988632062781296</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="8"/>
+        <v>0.14789256289825545</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="9"/>
+        <v>1.3355416347267508</v>
+      </c>
+      <c r="U26" s="10">
+        <v>20.879000000000001</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="10"/>
+        <v>0.53403301993379926</v>
+      </c>
+      <c r="W26" s="10">
+        <f t="shared" si="11"/>
+        <v>2.7385034582427852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1751,10 +2844,51 @@
         <v>13.92</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <v>402.48599999999999</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="8"/>
+        <v>0.29189569836958007</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="9"/>
+        <v>0.63828063606747543</v>
+      </c>
+      <c r="U27" s="10">
+        <v>28.402000000000001</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="10"/>
+        <v>0.135125</v>
+      </c>
+      <c r="W27" s="10">
+        <f t="shared" si="11"/>
+        <v>2.3134402424448939</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -1793,10 +2927,51 @@
         <v>8</v>
       </c>
       <c r="L28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="M28" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="N28" s="9">
+        <v>783.58600000000001</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>2.5523682148481468E-6</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>0.99999744763178511</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>2.5523682148481468E-4</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="7"/>
+        <v>99.999744763178512</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="8"/>
+        <v>0.56827981694056973</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="9"/>
+        <v>0.66126605780450465</v>
+      </c>
+      <c r="U28" s="10">
+        <v>36.917000000000002</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="10"/>
+        <v>3.7013094471045858E-2</v>
+      </c>
+      <c r="W28" s="10">
+        <f t="shared" si="11"/>
+        <v>2.0883932868290596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -1835,15 +3010,56 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="M29" s="9">
+        <v>3.6019999999999999</v>
+      </c>
+      <c r="N29" s="9">
+        <v>843.39400000000001</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>4.2708390147428131E-3</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>0.99572916098525721</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="6"/>
+        <v>0.45270893556273817</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="7"/>
+        <v>105.54729106443726</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="8"/>
+        <v>0.60904380302618155</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="9"/>
+        <v>0.72098302367638378</v>
+      </c>
+      <c r="U29" s="10">
+        <v>38.94</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="10"/>
+        <v>4.3790797029345269E-2</v>
+      </c>
+      <c r="W29" s="10">
+        <f t="shared" si="11"/>
+        <v>2.0927051444529194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="6">
-        <v>1.9280999999999999</v>
+      <c r="B30" s="12">
+        <v>2.59</v>
       </c>
       <c r="C30" s="7">
         <v>105.56100000000001</v>
@@ -1857,18 +3073,18 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="1"/>
-        <v>12.720760256249999</v>
+        <v>17.087686874999999</v>
       </c>
       <c r="G30" s="7">
         <v>2.460000038</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>3.5666174810666198</v>
+        <v>4.1337255442276284</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="3"/>
-        <v>1.4498444821026542</v>
+        <v>1.680376211533875</v>
       </c>
       <c r="J30" s="7">
         <v>14.99</v>
@@ -1877,12 +3093,53 @@
         <v>3.99</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="N30" s="9">
+        <v>208.99700000000001</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="4"/>
+        <v>2.1914190155839556E-3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="5"/>
+        <v>0.99780858098441605</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="6"/>
+        <v>3.5062704249343289E-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="7"/>
+        <v>15.964937295750657</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="8"/>
+        <v>0.15123897363373456</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="9"/>
+        <v>1.6822204473998246</v>
+      </c>
+      <c r="U30" s="12">
+        <v>17.027000000000001</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="10"/>
+        <v>0.16223051503555688</v>
+      </c>
+      <c r="W30" s="10">
+        <f t="shared" si="11"/>
+        <v>4.3132247986591441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B31" s="6">
         <v>4.0407999999999999</v>
@@ -1919,12 +3176,53 @@
         <v>4.07</v>
       </c>
       <c r="L31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="M31" s="9">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="N31" s="9">
+        <v>315.721</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="4"/>
+        <v>3.328888480652221E-3</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="5"/>
+        <v>0.99667111151934773</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="6"/>
+        <v>7.9893323535653302E-2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="7"/>
+        <v>23.920106676464346</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="8"/>
+        <v>0.2282087096387635</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="9"/>
+        <v>1.710536935319211</v>
+      </c>
+      <c r="U31" s="12">
+        <v>25.704000000000001</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="10"/>
+        <v>0.16892901251046069</v>
+      </c>
+      <c r="W31" s="10">
+        <f t="shared" si="11"/>
+        <v>4.3141886784016812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B32" s="5">
         <v>4.3924000000000003</v>
@@ -1961,12 +3259,53 @@
         <v>4.07</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="N32" s="9">
+        <v>336.76900000000001</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>3.025812945965929E-3</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="5"/>
+        <v>0.99697418705403407</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="6"/>
+        <v>9.6826014270909727E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="7"/>
+        <v>31.90317398572909</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="8"/>
+        <v>0.2434966454669793</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="9"/>
+        <v>1.7265109470231501</v>
+      </c>
+      <c r="U32" s="10">
+        <v>27.446999999999999</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="10"/>
+        <v>0.13767909117647059</v>
+      </c>
+      <c r="W32" s="10">
+        <f t="shared" si="11"/>
+        <v>4.3158449713340206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B33" s="5">
         <v>6.9767000000000001</v>
@@ -2003,298 +3342,141 @@
         <v>4.03</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2.59</v>
-      </c>
-      <c r="C34" s="7">
-        <v>105.56100000000001</v>
-      </c>
-      <c r="D34" s="2">
-        <v>16</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15157112948911056</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="1"/>
-        <v>17.087686874999999</v>
-      </c>
-      <c r="G34" s="7">
-        <v>2.460000038</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="2"/>
-        <v>4.1337255442276284</v>
-      </c>
-      <c r="I34" s="4">
-        <f t="shared" si="3"/>
-        <v>1.680376211533875</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="M33" s="9">
+        <v>1.353</v>
+      </c>
+      <c r="N33" s="9">
+        <v>526.202</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="4"/>
+        <v>2.5712559055267748E-3</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="5"/>
+        <v>0.99742874409447324</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="6"/>
+        <v>0.10285023622107099</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="7"/>
+        <v>39.897149763778927</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="8"/>
+        <v>0.38063697578803135</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="9"/>
+        <v>1.7403412874024895</v>
+      </c>
+      <c r="U33" s="10">
+        <v>42.951000000000001</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="10"/>
+        <v>0.17486712813590197</v>
+      </c>
+      <c r="W33" s="10">
+        <f t="shared" si="11"/>
+        <v>4.3181332417367617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="2">
-        <v>3.99</v>
-      </c>
-      <c r="L34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1.4327000000000001</v>
-      </c>
-      <c r="C35" s="3">
-        <v>78.868448000000001</v>
-      </c>
-      <c r="D35" s="1">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10143473344372138</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="1"/>
-        <v>14.1243531812</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2.464</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="2"/>
-        <v>3.7582380421149484</v>
-      </c>
-      <c r="I35" s="4">
-        <f t="shared" si="3"/>
-        <v>1.5252589456635344</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="6">
-        <v>0.82918000000000003</v>
-      </c>
-      <c r="C36" s="3">
-        <v>78.868448000000001</v>
-      </c>
-      <c r="D36" s="1">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10143473344372138</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="1"/>
-        <v>8.1745174640799991</v>
-      </c>
-      <c r="G36" s="3">
-        <v>2.464</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="2"/>
-        <v>2.8591113066965406</v>
-      </c>
-      <c r="I36" s="4">
-        <f t="shared" si="3"/>
-        <v>1.1603536147307389</v>
-      </c>
-      <c r="J36" s="2">
-        <v>3.37</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1.7027000000000001</v>
-      </c>
-      <c r="C37" s="7">
-        <v>105.56100000000001</v>
-      </c>
-      <c r="D37" s="2">
-        <v>16</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>0.15157112948911056</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="1"/>
-        <v>11.23366966875</v>
-      </c>
-      <c r="G37" s="7">
-        <v>2.460000038</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="2"/>
-        <v>3.3516667001284599</v>
-      </c>
-      <c r="I37" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3624661172173771</v>
-      </c>
-      <c r="J37" s="2">
-        <v>3.99</v>
-      </c>
-      <c r="K37" s="2">
-        <v>3.99</v>
-      </c>
-      <c r="L37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="5">
-        <v>2.702</v>
-      </c>
-      <c r="C38" s="7">
-        <v>104.8168</v>
-      </c>
-      <c r="D38" s="2">
-        <v>24</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="0"/>
-        <v>0.22897092832446708</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="1"/>
-        <v>11.800624733333333</v>
-      </c>
-      <c r="G38" s="7">
-        <v>2.460000038</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="2"/>
-        <v>3.4352037397122945</v>
-      </c>
-      <c r="I38" s="4">
-        <f t="shared" si="3"/>
-        <v>1.3964242628651109</v>
-      </c>
-      <c r="J38" s="2">
-        <v>4.07</v>
-      </c>
-      <c r="K38" s="2">
-        <v>4.07</v>
-      </c>
-      <c r="L38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="5">
-        <v>2.9634999999999998</v>
-      </c>
-      <c r="C39" s="2">
-        <v>131.02099999999999</v>
-      </c>
-      <c r="D39" s="2">
-        <v>32</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="0"/>
-        <v>0.24423565687943158</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="1"/>
-        <v>12.133772921874998</v>
-      </c>
-      <c r="G39" s="7">
-        <v>2.460000038</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="2"/>
-        <v>3.483356559681337</v>
-      </c>
-      <c r="I39" s="4">
-        <f t="shared" si="3"/>
-        <v>1.4159985796233296</v>
-      </c>
-      <c r="J39" s="2">
-        <v>4.07</v>
-      </c>
-      <c r="K39" s="2">
-        <v>4.07</v>
-      </c>
-      <c r="L39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="5">
-        <v>4.7420999999999998</v>
-      </c>
-      <c r="C40" s="2">
-        <v>104.8168</v>
-      </c>
-      <c r="D40" s="2">
-        <v>40</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="0"/>
-        <v>0.38161821387411177</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="1"/>
-        <v>12.426293682000001</v>
-      </c>
-      <c r="G40" s="7">
-        <v>2.460000038</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="2"/>
-        <v>3.5250948472346102</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" si="3"/>
-        <v>1.4329653629194823</v>
-      </c>
-      <c r="J40" s="2">
-        <v>4.03</v>
-      </c>
-      <c r="K40" s="2">
-        <v>4.03</v>
-      </c>
-      <c r="L40" t="s">
-        <v>56</v>
-      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:23" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
